--- a/prep_and_checklists/Fairchild  /PREP_REQ_Fairchild  _Monday, October 27, 2025  _0.xlsx
+++ b/prep_and_checklists/Fairchild  /PREP_REQ_Fairchild  _Monday, October 27, 2025  _0.xlsx
@@ -510,7 +510,7 @@
     <row r="1" ht="60.75" customHeight="1" s="15">
       <c r="A1" s="11" t="inlineStr">
         <is>
-          <t>EVENT PREP 10-16-2025</t>
+          <t>EVENT PREP 10-27-2025</t>
         </is>
       </c>
       <c r="B1" s="16" t="n"/>
@@ -586,7 +586,7 @@
     <row r="3" ht="21" customHeight="1" s="15">
       <c r="A3" s="17" t="inlineStr">
         <is>
-          <t>make / portion  quinoa falafel, 1.25 in scoop</t>
+          <t>fava bean hummus</t>
         </is>
       </c>
       <c r="B3" s="17" t="n"/>
@@ -622,13 +622,13 @@
     <row r="4" ht="21" customHeight="1" s="15">
       <c r="A4" s="17" t="inlineStr">
         <is>
-          <t>clean mixed greens</t>
+          <t>make / portion  quinoa falafel, 1.25 in scoop</t>
         </is>
       </c>
       <c r="B4" s="17" t="n"/>
       <c r="C4" s="17" t="inlineStr">
         <is>
-          <t>starter</t>
+          <t>canape</t>
         </is>
       </c>
       <c r="D4" s="18" t="inlineStr">
@@ -658,13 +658,13 @@
     <row r="5" ht="21" customHeight="1" s="15">
       <c r="A5" s="17" t="inlineStr">
         <is>
-          <t>citrus-tahini vinaigrette</t>
+          <t xml:space="preserve">make and portion mini hash brown </t>
         </is>
       </c>
       <c r="B5" s="17" t="n"/>
       <c r="C5" s="17" t="inlineStr">
         <is>
-          <t>starter</t>
+          <t>canape</t>
         </is>
       </c>
       <c r="D5" s="18" t="inlineStr">
@@ -694,7 +694,7 @@
     <row r="6" ht="21" customHeight="1" s="15">
       <c r="A6" s="17" t="inlineStr">
         <is>
-          <t>crispy quinoa za'atar</t>
+          <t>clean mixed greens</t>
         </is>
       </c>
       <c r="B6" s="17" t="n"/>
@@ -730,13 +730,13 @@
     <row r="7" ht="21" customHeight="1" s="15">
       <c r="A7" s="17" t="inlineStr">
         <is>
-          <t>make chicken nuggets</t>
+          <t>citrus-tahini vinaigrette</t>
         </is>
       </c>
       <c r="B7" s="17" t="n"/>
       <c r="C7" s="17" t="inlineStr">
         <is>
-          <t>canape</t>
+          <t>starter</t>
         </is>
       </c>
       <c r="D7" s="17" t="inlineStr">
@@ -766,13 +766,13 @@
     <row r="8" ht="21" customHeight="1" s="15">
       <c r="A8" s="17" t="inlineStr">
         <is>
-          <t>cut and portion chicken nuggets, 1 in x 1 in</t>
+          <t>crispy quinoa za'atar</t>
         </is>
       </c>
       <c r="B8" s="17" t="n"/>
       <c r="C8" s="17" t="inlineStr">
         <is>
-          <t>canape</t>
+          <t>starter</t>
         </is>
       </c>
       <c r="D8" s="17" t="inlineStr">
@@ -802,13 +802,13 @@
     <row r="9" ht="21" customHeight="1" s="15">
       <c r="A9" s="17" t="inlineStr">
         <is>
-          <t>bread chicken nuggets</t>
+          <t>butcher / 6% brine sasso chickens</t>
         </is>
       </c>
       <c r="B9" s="17" t="n"/>
       <c r="C9" s="17" t="inlineStr">
         <is>
-          <t>canape</t>
+          <t>station entrees</t>
         </is>
       </c>
       <c r="D9" s="18" t="inlineStr">
@@ -836,10 +836,22 @@
       <c r="V9" s="3" t="n"/>
     </row>
     <row r="10" ht="21" customHeight="1" s="15">
-      <c r="A10" s="17" t="n"/>
+      <c r="A10" s="17" t="inlineStr">
+        <is>
+          <t>wash / cut   Swiss chard</t>
+        </is>
+      </c>
       <c r="B10" s="17" t="n"/>
-      <c r="C10" s="17" t="n"/>
-      <c r="D10" s="18" t="n"/>
+      <c r="C10" s="17" t="inlineStr">
+        <is>
+          <t>entree</t>
+        </is>
+      </c>
+      <c r="D10" s="18" t="inlineStr">
+        <is>
+          <t>Monday, October 27, 2025  , by 4pm</t>
+        </is>
+      </c>
       <c r="E10" s="18" t="n"/>
       <c r="F10" s="8" t="n"/>
       <c r="G10" s="3" t="n"/>
